--- a/universe.xlsx
+++ b/universe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Documents/Code/courses/fcc/relational-db/universe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FAE7B4-EDD0-B640-AC36-E4CC67A5A2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C463AD-9731-3F40-899E-B20D232C7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="940" windowWidth="28040" windowHeight="12520" activeTab="3" xr2:uid="{CF9D4AAD-DECD-D141-9B87-684C34140F58}"/>
+    <workbookView xWindow="19320" yWindow="1660" windowWidth="28040" windowHeight="12520" activeTab="1" xr2:uid="{CF9D4AAD-DECD-D141-9B87-684C34140F58}"/>
   </bookViews>
   <sheets>
     <sheet name="galaxy" sheetId="1" r:id="rId1"/>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Galaxies</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>galaxy_id (SERIAL, PRIMARY KEY)</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Centaurus A</t>
   </si>
   <si>
-    <t>constellation_id (INT, Foreign Key)</t>
-  </si>
-  <si>
     <t>constellation_id (SERIAL, PRIMARY KEY)</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>star_id (SERIAL PRIMARY KEY)</t>
   </si>
   <si>
-    <t>galaxy_id(INT FOREIGN KEY)</t>
-  </si>
-  <si>
     <t>solar_masses(NUMERIC(8,2))</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>moon_id (SERIAL, PRIMARY KEY)</t>
   </si>
   <si>
-    <t>planet_id (INT FOREIGN KEY)</t>
-  </si>
-  <si>
     <t>is_dwarf (BOOLEAN)</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>TRAPPIST-1 e</t>
   </si>
   <si>
-    <t>star_id(INT FOREIGN KEY)</t>
-  </si>
-  <si>
     <t>distance_from_star_in_au (NUMERIC(9,3))</t>
   </si>
   <si>
@@ -297,6 +282,39 @@
   </si>
   <si>
     <t>distance_from_sun_in_ly</t>
+  </si>
+  <si>
+    <t>known_planet_count(INT)</t>
+  </si>
+  <si>
+    <t>is_terrestrial</t>
+  </si>
+  <si>
+    <t>orbital_period_in_days NUMERIC(8,2)</t>
+  </si>
+  <si>
+    <t>name (VARCHAR(32)) NOT NULL</t>
+  </si>
+  <si>
+    <t>planet_id (INT FOREIGN KEY NOT NULL)</t>
+  </si>
+  <si>
+    <t>name NOT NULL</t>
+  </si>
+  <si>
+    <t>galaxy_id(INT FOREIGN KEY) NOT NULL</t>
+  </si>
+  <si>
+    <t>star_id(INT FOREIGN KEY) NOT NULL</t>
+  </si>
+  <si>
+    <t>name VARCHAR(48) NOT NULL</t>
+  </si>
+  <si>
+    <t>constellation_id (INT, Foreign Key) NOT NULL</t>
+  </si>
+  <si>
+    <t>area_in_sq_deg</t>
   </si>
 </sst>
 </file>
@@ -669,7 +687,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,27 +703,27 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -713,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,7 +743,7 @@
         <v>-6.5</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -733,10 +751,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4">
         <v>0.16</v>
@@ -745,7 +763,7 @@
         <v>0.9</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,10 +771,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -765,7 +783,7 @@
         <v>2.7</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -773,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2.5</v>
@@ -785,7 +803,7 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -793,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="E7">
         <v>2.9</v>
@@ -805,7 +823,7 @@
         <v>5.7</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -813,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>13.7</v>
@@ -825,7 +843,7 @@
         <v>6.84</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,10 +851,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -845,7 +863,7 @@
         <v>6.94</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -853,10 +871,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -865,7 +883,7 @@
         <v>7.2</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -876,64 +894,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58AB105-329C-9647-8C23-FD3ED8FF2087}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>9</v>
+      <c r="D10">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +991,7 @@
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,22 +1005,25 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>0.4</v>
@@ -993,6 +1041,9 @@
       </c>
       <c r="E3" t="b">
         <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1003,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0.7</v>
@@ -1013,6 +1064,9 @@
       </c>
       <c r="E4" t="b">
         <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1023,16 +1077,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1043,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1.5</v>
@@ -1053,6 +1110,9 @@
       </c>
       <c r="E6" t="b">
         <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1063,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>5.2</v>
@@ -1072,6 +1132,9 @@
         <v>79</v>
       </c>
       <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7">
@@ -1083,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>9.5</v>
@@ -1092,6 +1155,9 @@
         <v>62</v>
       </c>
       <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8">
@@ -1103,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>19.8</v>
@@ -1112,6 +1178,9 @@
         <v>27</v>
       </c>
       <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9">
@@ -1123,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>30.1</v>
@@ -1132,6 +1201,9 @@
         <v>14</v>
       </c>
       <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10">
@@ -1143,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>2.8</v>
@@ -1153,6 +1225,9 @@
       </c>
       <c r="E11" t="b">
         <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1163,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>39</v>
@@ -1173,6 +1248,9 @@
       </c>
       <c r="E12" t="b">
         <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1183,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>45.8</v>
@@ -1193,6 +1271,9 @@
       </c>
       <c r="E13" t="b">
         <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1203,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>43</v>
@@ -1213,6 +1294,9 @@
       </c>
       <c r="E14" t="b">
         <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1223,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>68</v>
@@ -1233,6 +1317,9 @@
       </c>
       <c r="E15" t="b">
         <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1243,10 +1330,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1259,120 +1355,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E72BB06-D954-254F-8E14-B3AA17A5B40A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>40.700000000000003</v>
       </c>
+      <c r="D4">
+        <v>0.09</v>
+      </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>554.5</v>
       </c>
+      <c r="D5">
+        <v>15.5</v>
+      </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>25.11</v>
       </c>
+      <c r="D6">
+        <v>1.92</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>50.88</v>
       </c>
+      <c r="D7">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>642.5</v>
       </c>
+      <c r="D8">
+        <v>16.5</v>
+      </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>16.5</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1382,35 +1501,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAE4960-7777-C643-B1AF-39F3FE3F7C0B}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1418,10 +1543,13 @@
       <c r="E3" s="4">
         <v>238900</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1429,10 +1557,13 @@
       <c r="E4" s="4">
         <v>3700</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1440,10 +1571,13 @@
       <c r="E5" s="4">
         <v>14573</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1451,10 +1585,13 @@
       <c r="E6" s="4">
         <v>417000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1462,10 +1599,13 @@
       <c r="E7" s="4">
         <v>665000</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1473,10 +1613,13 @@
       <c r="E8" s="4">
         <v>421700</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1484,10 +1627,13 @@
       <c r="E9" s="4">
         <v>1168000</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1495,10 +1641,13 @@
       <c r="E10" s="4">
         <v>112500</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1506,10 +1655,13 @@
       <c r="E11" s="4">
         <v>80200</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1517,10 +1669,13 @@
       <c r="E12" s="4">
         <v>759000</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1528,10 +1683,13 @@
       <c r="E13" s="4">
         <v>148000</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1539,10 +1697,13 @@
       <c r="E14" s="4">
         <v>115280</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1550,10 +1711,13 @@
       <c r="E15" s="4">
         <v>80654</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1561,10 +1725,13 @@
       <c r="E16" s="4">
         <v>270820</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1572,10 +1739,13 @@
       <c r="E17" s="4">
         <v>362000</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -1583,10 +1753,13 @@
       <c r="E18" s="4">
         <v>220500</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1594,10 +1767,13 @@
       <c r="E19" s="4">
         <v>15700</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1605,10 +1781,13 @@
       <c r="E20" s="4">
         <v>3425900</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -1616,16 +1795,22 @@
       <c r="E21" s="4">
         <v>23100</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" s="4">
         <v>17200</v>
+      </c>
+      <c r="F22">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
